--- a/tests/advanced/randomized_tests/b10.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b10.stpprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -32,6 +32,9 @@
     <t>S*-MM0</t>
   </si>
   <si>
+    <t>S*-unmerged</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -438,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +481,14 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -496,9 +508,9 @@
         <v>105</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
+        <v>105</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="b">
@@ -508,6 +520,12 @@
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -518,7 +536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,36 +544,36 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -564,28 +582,28 @@
         <v>58</v>
       </c>
       <c r="D2">
-        <v>0.001361070550046861</v>
+        <v>0.0001522093079984188</v>
       </c>
       <c r="E2">
-        <v>0.2053769080666825</v>
+        <v>0.02994741080328822</v>
       </c>
       <c r="F2">
         <v>58</v>
       </c>
       <c r="G2">
-        <v>0.01537796703632921</v>
+        <v>0.00319875031709671</v>
       </c>
       <c r="H2">
-        <v>0.02754085802007467</v>
+        <v>0.005258566234260798</v>
       </c>
       <c r="I2">
-        <v>0.04084324440918863</v>
+        <v>0.006263252347707748</v>
       </c>
       <c r="J2">
-        <v>0.1042066612280905</v>
+        <v>0.01089987717568874</v>
       </c>
       <c r="K2">
-        <v>0.004370995564386249</v>
+        <v>0.001206726767122746</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -594,31 +612,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="D3">
-        <v>0.09239263401832432</v>
+        <v>0.002116247080266476</v>
       </c>
       <c r="E3">
-        <v>0.4119786439696327</v>
+        <v>0.08654922293499112</v>
       </c>
       <c r="F3">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="G3">
-        <v>0.0209345247130841</v>
+        <v>0.003199639730155468</v>
       </c>
       <c r="H3">
-        <v>0.1402825632831082</v>
+        <v>0.01371085783466697</v>
       </c>
       <c r="I3">
-        <v>0.1263708657352254</v>
+        <v>0.0506436787545681</v>
       </c>
       <c r="J3">
-        <v>0.09568630310241133</v>
+        <v>0.01463498873636127</v>
       </c>
       <c r="K3">
-        <v>0.006962630781345069</v>
+        <v>0.001226259861141443</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -630,28 +648,28 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>0.02998534252401441</v>
+        <v>0.009587882086634636</v>
       </c>
       <c r="E4">
-        <v>0.2651878589531407</v>
+        <v>0.05743909906595945</v>
       </c>
       <c r="F4">
         <v>58</v>
       </c>
       <c r="G4">
-        <v>0.01200241188053042</v>
+        <v>0.003110521007329226</v>
       </c>
       <c r="H4">
-        <v>0.05057991971261799</v>
+        <v>0.01508199330419302</v>
       </c>
       <c r="I4">
-        <v>0.08628957089968026</v>
+        <v>0.00706089474260807</v>
       </c>
       <c r="J4">
-        <v>0.1021141918608919</v>
+        <v>0.01313930656760931</v>
       </c>
       <c r="K4">
-        <v>0.003333331667818129</v>
+        <v>0.0157202985137701</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,192 +681,258 @@
         <v>58</v>
       </c>
       <c r="D5">
-        <v>0.001117917010560632</v>
+        <v>0.0002050348557531834</v>
       </c>
       <c r="E5">
-        <v>0.1460853479802608</v>
+        <v>0.05339524522423744</v>
       </c>
       <c r="F5">
         <v>58</v>
       </c>
       <c r="G5">
-        <v>0.01175158773548901</v>
+        <v>0.002983649726957083</v>
       </c>
       <c r="H5">
-        <v>0.02001763321459293</v>
+        <v>0.007281436119228601</v>
       </c>
       <c r="I5">
-        <v>0.03418123791925609</v>
+        <v>0.006934765726327896</v>
       </c>
       <c r="J5">
-        <v>0.06731835403479636</v>
+        <v>0.03191883023828268</v>
       </c>
       <c r="K5">
-        <v>0.003178655751980841</v>
+        <v>0.001217253971844912</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>0.003537503536790609</v>
+      </c>
+      <c r="E6">
+        <v>0.1214004540815949</v>
+      </c>
+      <c r="F6">
+        <v>119</v>
+      </c>
+      <c r="G6">
+        <v>0.006868789438158274</v>
+      </c>
+      <c r="H6">
+        <v>0.01589993806555867</v>
+      </c>
+      <c r="I6">
+        <v>0.06896418146789074</v>
+      </c>
+      <c r="J6">
+        <v>0.02029217500239611</v>
+      </c>
+      <c r="K6">
+        <v>0.002734861336648464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>975</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.009133445913903415</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>58</v>
-      </c>
-      <c r="D7">
-        <v>0.001361070550046861</v>
-      </c>
-      <c r="E7">
-        <v>0.2053769080666825</v>
-      </c>
-      <c r="F7">
-        <v>58</v>
-      </c>
-      <c r="G7">
-        <v>0.01537796703632921</v>
-      </c>
-      <c r="H7">
-        <v>0.02754085802007467</v>
-      </c>
-      <c r="I7">
-        <v>0.04084324440918863</v>
-      </c>
-      <c r="J7">
-        <v>0.1042066612280905</v>
-      </c>
-      <c r="K7">
-        <v>0.004370995564386249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C8">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>0.09239263401832432</v>
+        <v>0.0001522093079984188</v>
       </c>
       <c r="E8">
-        <v>0.4119786439696327</v>
+        <v>0.02994741080328822</v>
       </c>
       <c r="F8">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="G8">
-        <v>0.0209345247130841</v>
+        <v>0.00319875031709671</v>
       </c>
       <c r="H8">
-        <v>0.1402825632831082</v>
+        <v>0.005258566234260798</v>
       </c>
       <c r="I8">
-        <v>0.1263708657352254</v>
+        <v>0.006263252347707748</v>
       </c>
       <c r="J8">
-        <v>0.09568630310241133</v>
+        <v>0.01089987717568874</v>
       </c>
       <c r="K8">
-        <v>0.006962630781345069</v>
+        <v>0.001206726767122746</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>58</v>
       </c>
       <c r="D9">
-        <v>0.02998534252401441</v>
+        <v>0.002116247080266476</v>
       </c>
       <c r="E9">
-        <v>0.2651878589531407</v>
+        <v>0.08654922293499112</v>
       </c>
       <c r="F9">
         <v>58</v>
       </c>
       <c r="G9">
-        <v>0.01200241188053042</v>
+        <v>0.003199639730155468</v>
       </c>
       <c r="H9">
-        <v>0.05057991971261799</v>
+        <v>0.01371085783466697</v>
       </c>
       <c r="I9">
-        <v>0.08628957089968026</v>
+        <v>0.0506436787545681</v>
       </c>
       <c r="J9">
-        <v>0.1021141918608919</v>
+        <v>0.01463498873636127</v>
       </c>
       <c r="K9">
-        <v>0.003333331667818129</v>
+        <v>0.001226259861141443</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>58</v>
       </c>
       <c r="D10">
-        <v>0.001117917010560632</v>
+        <v>0.009587882086634636</v>
       </c>
       <c r="E10">
-        <v>0.1460853479802608</v>
+        <v>0.05743909906595945</v>
       </c>
       <c r="F10">
         <v>58</v>
       </c>
       <c r="G10">
-        <v>0.01175158773548901</v>
+        <v>0.003110521007329226</v>
       </c>
       <c r="H10">
-        <v>0.02001763321459293</v>
+        <v>0.01508199330419302</v>
       </c>
       <c r="I10">
-        <v>0.03418123791925609</v>
+        <v>0.00706089474260807</v>
       </c>
       <c r="J10">
-        <v>0.06731835403479636</v>
+        <v>0.01313930656760931</v>
       </c>
       <c r="K10">
-        <v>0.003178655751980841</v>
+        <v>0.0157202985137701</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C11">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>0.0002050348557531834</v>
+      </c>
+      <c r="E11">
+        <v>0.05339524522423744</v>
+      </c>
+      <c r="F11">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <v>0.002983649726957083</v>
+      </c>
+      <c r="H11">
+        <v>0.007281436119228601</v>
+      </c>
+      <c r="I11">
+        <v>0.006934765726327896</v>
+      </c>
+      <c r="J11">
+        <v>0.03191883023828268</v>
+      </c>
+      <c r="K11">
+        <v>0.001217253971844912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>119</v>
+      </c>
+      <c r="D12">
+        <v>0.003537503536790609</v>
+      </c>
+      <c r="E12">
+        <v>0.1214004540815949</v>
+      </c>
+      <c r="F12">
+        <v>119</v>
+      </c>
+      <c r="G12">
+        <v>0.006868789438158274</v>
+      </c>
+      <c r="H12">
+        <v>0.01589993806555867</v>
+      </c>
+      <c r="I12">
+        <v>0.06896418146789074</v>
+      </c>
+      <c r="J12">
+        <v>0.02029217500239611</v>
+      </c>
+      <c r="K12">
+        <v>0.002734861336648464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
         <v>975</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0.009133445913903415</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b10.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b10.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>58</v>
       </c>
       <c r="D2">
-        <v>0.0001522093079984188</v>
+        <v>0.0001074313186109066</v>
       </c>
       <c r="E2">
-        <v>0.02994741080328822</v>
+        <v>0.03318778006359935</v>
       </c>
       <c r="F2">
         <v>58</v>
       </c>
       <c r="G2">
-        <v>0.00319875031709671</v>
+        <v>0.002988782245665789</v>
       </c>
       <c r="H2">
-        <v>0.005258566234260798</v>
+        <v>0.005840327125042677</v>
       </c>
       <c r="I2">
-        <v>0.006263252347707748</v>
+        <v>0.007988458499312401</v>
       </c>
       <c r="J2">
-        <v>0.01089987717568874</v>
+        <v>0.01216139039024711</v>
       </c>
       <c r="K2">
-        <v>0.001206726767122746</v>
+        <v>0.001206408720463514</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>58</v>
       </c>
       <c r="D3">
-        <v>0.002116247080266476</v>
+        <v>0.002322259824723005</v>
       </c>
       <c r="E3">
-        <v>0.08654922293499112</v>
+        <v>0.04118812456727028</v>
       </c>
       <c r="F3">
         <v>58</v>
       </c>
       <c r="G3">
-        <v>0.003199639730155468</v>
+        <v>0.00366108538582921</v>
       </c>
       <c r="H3">
-        <v>0.01371085783466697</v>
+        <v>0.008668153546750546</v>
       </c>
       <c r="I3">
-        <v>0.0506436787545681</v>
+        <v>0.008431130088865757</v>
       </c>
       <c r="J3">
-        <v>0.01463498873636127</v>
+        <v>0.01543169608339667</v>
       </c>
       <c r="K3">
-        <v>0.001226259861141443</v>
+        <v>0.001841188874095678</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>0.009587882086634636</v>
+        <v>0.002208093646913767</v>
       </c>
       <c r="E4">
-        <v>0.05743909906595945</v>
+        <v>0.0626468462869525</v>
       </c>
       <c r="F4">
         <v>58</v>
       </c>
       <c r="G4">
-        <v>0.003110521007329226</v>
+        <v>0.00326509540900588</v>
       </c>
       <c r="H4">
-        <v>0.01508199330419302</v>
+        <v>0.0222645215690136</v>
       </c>
       <c r="I4">
-        <v>0.00706089474260807</v>
+        <v>0.00873554265126586</v>
       </c>
       <c r="J4">
-        <v>0.01313930656760931</v>
+        <v>0.02402074309065938</v>
       </c>
       <c r="K4">
-        <v>0.0157202985137701</v>
+        <v>0.001227786298841238</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>58</v>
       </c>
       <c r="D5">
-        <v>0.0002050348557531834</v>
+        <v>0.0002701361663639545</v>
       </c>
       <c r="E5">
-        <v>0.05339524522423744</v>
+        <v>0.07227285765111446</v>
       </c>
       <c r="F5">
         <v>58</v>
       </c>
       <c r="G5">
-        <v>0.002983649726957083</v>
+        <v>0.002981152851134539</v>
       </c>
       <c r="H5">
-        <v>0.007281436119228601</v>
+        <v>0.01089310133829713</v>
       </c>
       <c r="I5">
-        <v>0.006934765726327896</v>
+        <v>0.01989418035373092</v>
       </c>
       <c r="J5">
-        <v>0.03191883023828268</v>
+        <v>0.03430342068895698</v>
       </c>
       <c r="K5">
-        <v>0.001217253971844912</v>
+        <v>0.001179954502731562</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>119</v>
       </c>
       <c r="D6">
-        <v>0.003537503536790609</v>
+        <v>0.003749554045498371</v>
       </c>
       <c r="E6">
-        <v>0.1214004540815949</v>
+        <v>0.1677141105756164</v>
       </c>
       <c r="F6">
         <v>119</v>
       </c>
       <c r="G6">
-        <v>0.006868789438158274</v>
+        <v>0.006936208344995975</v>
       </c>
       <c r="H6">
-        <v>0.01589993806555867</v>
+        <v>0.01874947315081954</v>
       </c>
       <c r="I6">
-        <v>0.06896418146789074</v>
+        <v>0.1152381421998143</v>
       </c>
       <c r="J6">
-        <v>0.02029217500239611</v>
+        <v>0.01773395063355565</v>
       </c>
       <c r="K6">
-        <v>0.002734861336648464</v>
+        <v>0.002564535941928625</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>58</v>
       </c>
       <c r="D8">
-        <v>0.0001522093079984188</v>
+        <v>0.0001074313186109066</v>
       </c>
       <c r="E8">
-        <v>0.02994741080328822</v>
+        <v>0.03318778006359935</v>
       </c>
       <c r="F8">
         <v>58</v>
       </c>
       <c r="G8">
-        <v>0.00319875031709671</v>
+        <v>0.002988782245665789</v>
       </c>
       <c r="H8">
-        <v>0.005258566234260798</v>
+        <v>0.005840327125042677</v>
       </c>
       <c r="I8">
-        <v>0.006263252347707748</v>
+        <v>0.007988458499312401</v>
       </c>
       <c r="J8">
-        <v>0.01089987717568874</v>
+        <v>0.01216139039024711</v>
       </c>
       <c r="K8">
-        <v>0.001206726767122746</v>
+        <v>0.001206408720463514</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>58</v>
       </c>
       <c r="D9">
-        <v>0.002116247080266476</v>
+        <v>0.002322259824723005</v>
       </c>
       <c r="E9">
-        <v>0.08654922293499112</v>
+        <v>0.04118812456727028</v>
       </c>
       <c r="F9">
         <v>58</v>
       </c>
       <c r="G9">
-        <v>0.003199639730155468</v>
+        <v>0.00366108538582921</v>
       </c>
       <c r="H9">
-        <v>0.01371085783466697</v>
+        <v>0.008668153546750546</v>
       </c>
       <c r="I9">
-        <v>0.0506436787545681</v>
+        <v>0.008431130088865757</v>
       </c>
       <c r="J9">
-        <v>0.01463498873636127</v>
+        <v>0.01543169608339667</v>
       </c>
       <c r="K9">
-        <v>0.001226259861141443</v>
+        <v>0.001841188874095678</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>58</v>
       </c>
       <c r="D10">
-        <v>0.009587882086634636</v>
+        <v>0.002208093646913767</v>
       </c>
       <c r="E10">
-        <v>0.05743909906595945</v>
+        <v>0.0626468462869525</v>
       </c>
       <c r="F10">
         <v>58</v>
       </c>
       <c r="G10">
-        <v>0.003110521007329226</v>
+        <v>0.00326509540900588</v>
       </c>
       <c r="H10">
-        <v>0.01508199330419302</v>
+        <v>0.0222645215690136</v>
       </c>
       <c r="I10">
-        <v>0.00706089474260807</v>
+        <v>0.00873554265126586</v>
       </c>
       <c r="J10">
-        <v>0.01313930656760931</v>
+        <v>0.02402074309065938</v>
       </c>
       <c r="K10">
-        <v>0.0157202985137701</v>
+        <v>0.001227786298841238</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>58</v>
       </c>
       <c r="D11">
-        <v>0.0002050348557531834</v>
+        <v>0.0002701361663639545</v>
       </c>
       <c r="E11">
-        <v>0.05339524522423744</v>
+        <v>0.07227285765111446</v>
       </c>
       <c r="F11">
         <v>58</v>
       </c>
       <c r="G11">
-        <v>0.002983649726957083</v>
+        <v>0.002981152851134539</v>
       </c>
       <c r="H11">
-        <v>0.007281436119228601</v>
+        <v>0.01089310133829713</v>
       </c>
       <c r="I11">
-        <v>0.006934765726327896</v>
+        <v>0.01989418035373092</v>
       </c>
       <c r="J11">
-        <v>0.03191883023828268</v>
+        <v>0.03430342068895698</v>
       </c>
       <c r="K11">
-        <v>0.001217253971844912</v>
+        <v>0.001179954502731562</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>119</v>
       </c>
       <c r="D12">
-        <v>0.003537503536790609</v>
+        <v>0.003749554045498371</v>
       </c>
       <c r="E12">
-        <v>0.1214004540815949</v>
+        <v>0.1677141105756164</v>
       </c>
       <c r="F12">
         <v>119</v>
       </c>
       <c r="G12">
-        <v>0.006868789438158274</v>
+        <v>0.006936208344995975</v>
       </c>
       <c r="H12">
-        <v>0.01589993806555867</v>
+        <v>0.01874947315081954</v>
       </c>
       <c r="I12">
-        <v>0.06896418146789074</v>
+        <v>0.1152381421998143</v>
       </c>
       <c r="J12">
-        <v>0.02029217500239611</v>
+        <v>0.01773395063355565</v>
       </c>
       <c r="K12">
-        <v>0.002734861336648464</v>
+        <v>0.002564535941928625</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b10.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b10.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>105</v>
       </c>
       <c r="D2">
-        <v>105</v>
-      </c>
-      <c r="E2">
-        <v>105</v>
-      </c>
-      <c r="F2">
-        <v>105</v>
-      </c>
-      <c r="G2">
-        <v>105</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="D2">
-        <v>0.0001074313186109066</v>
+        <v>0.004771883599460125</v>
       </c>
       <c r="E2">
-        <v>0.03318778006359935</v>
+        <v>0.06200606795027852</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="G2">
-        <v>0.002988782245665789</v>
+        <v>0.005712793674319983</v>
       </c>
       <c r="H2">
-        <v>0.005840327125042677</v>
+        <v>0.01435734704136848</v>
       </c>
       <c r="I2">
-        <v>0.007988458499312401</v>
+        <v>0.02155278483405709</v>
       </c>
       <c r="J2">
-        <v>0.01216139039024711</v>
+        <v>0.01156591484323144</v>
       </c>
       <c r="K2">
-        <v>0.001206408720463514</v>
+        <v>0.003450938034802675</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>58</v>
-      </c>
-      <c r="D3">
-        <v>0.002322259824723005</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04118812456727028</v>
-      </c>
-      <c r="F3">
-        <v>58</v>
-      </c>
-      <c r="G3">
-        <v>0.00366108538582921</v>
-      </c>
-      <c r="H3">
-        <v>0.008668153546750546</v>
-      </c>
-      <c r="I3">
-        <v>0.008431130088865757</v>
-      </c>
-      <c r="J3">
-        <v>0.01543169608339667</v>
-      </c>
-      <c r="K3">
-        <v>0.001841188874095678</v>
+        <v>0.01243691705167294</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="D4">
-        <v>0.002208093646913767</v>
+        <v>0.004771883599460125</v>
       </c>
       <c r="E4">
-        <v>0.0626468462869525</v>
+        <v>0.06200606795027852</v>
       </c>
       <c r="F4">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="G4">
-        <v>0.00326509540900588</v>
+        <v>0.005712793674319983</v>
       </c>
       <c r="H4">
-        <v>0.0222645215690136</v>
+        <v>0.01435734704136848</v>
       </c>
       <c r="I4">
-        <v>0.00873554265126586</v>
+        <v>0.02155278483405709</v>
       </c>
       <c r="J4">
-        <v>0.02402074309065938</v>
+        <v>0.01156591484323144</v>
       </c>
       <c r="K4">
-        <v>0.001227786298841238</v>
+        <v>0.003450938034802675</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>58</v>
-      </c>
-      <c r="D5">
-        <v>0.0002701361663639545</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07227285765111446</v>
-      </c>
-      <c r="F5">
-        <v>58</v>
-      </c>
-      <c r="G5">
-        <v>0.002981152851134539</v>
-      </c>
-      <c r="H5">
-        <v>0.01089310133829713</v>
-      </c>
-      <c r="I5">
-        <v>0.01989418035373092</v>
-      </c>
-      <c r="J5">
-        <v>0.03430342068895698</v>
-      </c>
-      <c r="K5">
-        <v>0.001179954502731562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>119</v>
-      </c>
-      <c r="D6">
-        <v>0.003749554045498371</v>
-      </c>
-      <c r="E6">
-        <v>0.1677141105756164</v>
-      </c>
-      <c r="F6">
-        <v>119</v>
-      </c>
-      <c r="G6">
-        <v>0.006936208344995975</v>
-      </c>
-      <c r="H6">
-        <v>0.01874947315081954</v>
-      </c>
-      <c r="I6">
-        <v>0.1152381421998143</v>
-      </c>
-      <c r="J6">
-        <v>0.01773395063355565</v>
-      </c>
-      <c r="K6">
-        <v>0.002564535941928625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>975</v>
-      </c>
-      <c r="E7">
-        <v>0.009133445913903415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>58</v>
-      </c>
-      <c r="D8">
-        <v>0.0001074313186109066</v>
-      </c>
-      <c r="E8">
-        <v>0.03318778006359935</v>
-      </c>
-      <c r="F8">
-        <v>58</v>
-      </c>
-      <c r="G8">
-        <v>0.002988782245665789</v>
-      </c>
-      <c r="H8">
-        <v>0.005840327125042677</v>
-      </c>
-      <c r="I8">
-        <v>0.007988458499312401</v>
-      </c>
-      <c r="J8">
-        <v>0.01216139039024711</v>
-      </c>
-      <c r="K8">
-        <v>0.001206408720463514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>58</v>
-      </c>
-      <c r="D9">
-        <v>0.002322259824723005</v>
-      </c>
-      <c r="E9">
-        <v>0.04118812456727028</v>
-      </c>
-      <c r="F9">
-        <v>58</v>
-      </c>
-      <c r="G9">
-        <v>0.00366108538582921</v>
-      </c>
-      <c r="H9">
-        <v>0.008668153546750546</v>
-      </c>
-      <c r="I9">
-        <v>0.008431130088865757</v>
-      </c>
-      <c r="J9">
-        <v>0.01543169608339667</v>
-      </c>
-      <c r="K9">
-        <v>0.001841188874095678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>58</v>
-      </c>
-      <c r="D10">
-        <v>0.002208093646913767</v>
-      </c>
-      <c r="E10">
-        <v>0.0626468462869525</v>
-      </c>
-      <c r="F10">
-        <v>58</v>
-      </c>
-      <c r="G10">
-        <v>0.00326509540900588</v>
-      </c>
-      <c r="H10">
-        <v>0.0222645215690136</v>
-      </c>
-      <c r="I10">
-        <v>0.00873554265126586</v>
-      </c>
-      <c r="J10">
-        <v>0.02402074309065938</v>
-      </c>
-      <c r="K10">
-        <v>0.001227786298841238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>58</v>
-      </c>
-      <c r="D11">
-        <v>0.0002701361663639545</v>
-      </c>
-      <c r="E11">
-        <v>0.07227285765111446</v>
-      </c>
-      <c r="F11">
-        <v>58</v>
-      </c>
-      <c r="G11">
-        <v>0.002981152851134539</v>
-      </c>
-      <c r="H11">
-        <v>0.01089310133829713</v>
-      </c>
-      <c r="I11">
-        <v>0.01989418035373092</v>
-      </c>
-      <c r="J11">
-        <v>0.03430342068895698</v>
-      </c>
-      <c r="K11">
-        <v>0.001179954502731562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>119</v>
-      </c>
-      <c r="D12">
-        <v>0.003749554045498371</v>
-      </c>
-      <c r="E12">
-        <v>0.1677141105756164</v>
-      </c>
-      <c r="F12">
-        <v>119</v>
-      </c>
-      <c r="G12">
-        <v>0.006936208344995975</v>
-      </c>
-      <c r="H12">
-        <v>0.01874947315081954</v>
-      </c>
-      <c r="I12">
-        <v>0.1152381421998143</v>
-      </c>
-      <c r="J12">
-        <v>0.01773395063355565</v>
-      </c>
-      <c r="K12">
-        <v>0.002564535941928625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>975</v>
-      </c>
-      <c r="E13">
-        <v>0.009133445913903415</v>
+        <v>0.01243691705167294</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b10.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b10.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>105</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
+        <v>105</v>
+      </c>
+      <c r="E2">
+        <v>105</v>
+      </c>
+      <c r="F2">
+        <v>105</v>
+      </c>
+      <c r="G2">
+        <v>105</v>
+      </c>
+      <c r="H2">
+        <v>105</v>
+      </c>
+      <c r="I2">
+        <v>105</v>
+      </c>
+      <c r="J2">
+        <v>105</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>0.004771883599460125</v>
+        <v>0.0003094375133514404</v>
       </c>
       <c r="E2">
-        <v>0.06200606795027852</v>
+        <v>0.03110734792426229</v>
       </c>
       <c r="F2">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>0.005712793674319983</v>
+        <v>0.003822440281510353</v>
       </c>
       <c r="H2">
-        <v>0.01435734704136848</v>
+        <v>0.005549176596105099</v>
       </c>
       <c r="I2">
-        <v>0.02155278483405709</v>
+        <v>0.006585701368749142</v>
       </c>
       <c r="J2">
-        <v>0.01156591484323144</v>
+        <v>0.009328722022473812</v>
       </c>
       <c r="K2">
-        <v>0.003450938034802675</v>
+        <v>0.00241167051717639</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="D3">
+        <v>0.007155559957027435</v>
       </c>
       <c r="E3">
-        <v>0.01243691705167294</v>
+        <v>0.0919987759552896</v>
+      </c>
+      <c r="F3">
+        <v>132</v>
+      </c>
+      <c r="G3">
+        <v>0.008253809530287981</v>
+      </c>
+      <c r="H3">
+        <v>0.02075281832367182</v>
+      </c>
+      <c r="I3">
+        <v>0.0321395299397409</v>
+      </c>
+      <c r="J3">
+        <v>0.01710820756852627</v>
+      </c>
+      <c r="K3">
+        <v>0.005775818135589361</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>0.004771883599460125</v>
+        <v>0.007884879596531391</v>
       </c>
       <c r="E4">
-        <v>0.06200606795027852</v>
+        <v>0.04500185186043382</v>
       </c>
       <c r="F4">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="G4">
-        <v>0.005712793674319983</v>
+        <v>0.004525347612798214</v>
       </c>
       <c r="H4">
-        <v>0.01435734704136848</v>
+        <v>0.014237429946661</v>
       </c>
       <c r="I4">
-        <v>0.02155278483405709</v>
+        <v>0.00756780942901969</v>
       </c>
       <c r="J4">
-        <v>0.01156591484323144</v>
+        <v>0.01265208935365081</v>
       </c>
       <c r="K4">
-        <v>0.003450938034802675</v>
+        <v>0.00240099523216486</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>0.0002439920790493488</v>
       </c>
       <c r="E5">
+        <v>0.03857281897217035</v>
+      </c>
+      <c r="F5">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <v>0.004243476781994104</v>
+      </c>
+      <c r="H5">
+        <v>0.006414820440113544</v>
+      </c>
+      <c r="I5">
+        <v>0.00806529214605689</v>
+      </c>
+      <c r="J5">
+        <v>0.01334349531680346</v>
+      </c>
+      <c r="K5">
+        <v>0.002783124800771475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>0.0009549488313496113</v>
+      </c>
+      <c r="E6">
+        <v>0.1100334040820599</v>
+      </c>
+      <c r="F6">
+        <v>119</v>
+      </c>
+      <c r="G6">
+        <v>0.008179400581866503</v>
+      </c>
+      <c r="H6">
+        <v>0.01369037479162216</v>
+      </c>
+      <c r="I6">
+        <v>0.06780656427145004</v>
+      </c>
+      <c r="J6">
+        <v>0.00805433327332139</v>
+      </c>
+      <c r="K6">
+        <v>0.005087675992399454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>581</v>
+      </c>
+      <c r="D7">
+        <v>0.01395469903945923</v>
+      </c>
+      <c r="E7">
+        <v>0.4033254077658057</v>
+      </c>
+      <c r="F7">
+        <v>581</v>
+      </c>
+      <c r="G7">
+        <v>0.02689278591424227</v>
+      </c>
+      <c r="H7">
+        <v>0.05891077406704426</v>
+      </c>
+      <c r="I7">
+        <v>0.2481127684004605</v>
+      </c>
+      <c r="J7">
+        <v>0.02654362982138991</v>
+      </c>
+      <c r="K7">
+        <v>0.01760034961625934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>119</v>
+      </c>
+      <c r="D8">
+        <v>0.005450536962598562</v>
+      </c>
+      <c r="E8">
+        <v>0.1282292581163347</v>
+      </c>
+      <c r="F8">
+        <v>119</v>
+      </c>
+      <c r="G8">
+        <v>0.008348577655851841</v>
+      </c>
+      <c r="H8">
+        <v>0.02050282200798392</v>
+      </c>
+      <c r="I8">
+        <v>0.07222355576232076</v>
+      </c>
+      <c r="J8">
+        <v>0.01464533247053623</v>
+      </c>
+      <c r="K8">
+        <v>0.005073483102023602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>119</v>
+      </c>
+      <c r="D9">
+        <v>0.001059177797287703</v>
+      </c>
+      <c r="E9">
+        <v>0.0909128887578845</v>
+      </c>
+      <c r="F9">
+        <v>119</v>
+      </c>
+      <c r="G9">
+        <v>0.00660917442291975</v>
+      </c>
+      <c r="H9">
+        <v>0.01266850298270583</v>
+      </c>
+      <c r="I9">
+        <v>0.05430999072268605</v>
+      </c>
+      <c r="J9">
+        <v>0.007301431614905596</v>
+      </c>
+      <c r="K9">
+        <v>0.004140134900808334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.01243691705167294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>0.0003094375133514404</v>
+      </c>
+      <c r="E11">
+        <v>0.03110734792426229</v>
+      </c>
+      <c r="F11">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <v>0.003822440281510353</v>
+      </c>
+      <c r="H11">
+        <v>0.005549176596105099</v>
+      </c>
+      <c r="I11">
+        <v>0.006585701368749142</v>
+      </c>
+      <c r="J11">
+        <v>0.009328722022473812</v>
+      </c>
+      <c r="K11">
+        <v>0.00241167051717639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>132</v>
+      </c>
+      <c r="D12">
+        <v>0.007155559957027435</v>
+      </c>
+      <c r="E12">
+        <v>0.0919987759552896</v>
+      </c>
+      <c r="F12">
+        <v>132</v>
+      </c>
+      <c r="G12">
+        <v>0.008253809530287981</v>
+      </c>
+      <c r="H12">
+        <v>0.02075281832367182</v>
+      </c>
+      <c r="I12">
+        <v>0.0321395299397409</v>
+      </c>
+      <c r="J12">
+        <v>0.01710820756852627</v>
+      </c>
+      <c r="K12">
+        <v>0.005775818135589361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>0.007884879596531391</v>
+      </c>
+      <c r="E13">
+        <v>0.04500185186043382</v>
+      </c>
+      <c r="F13">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>0.004525347612798214</v>
+      </c>
+      <c r="H13">
+        <v>0.014237429946661</v>
+      </c>
+      <c r="I13">
+        <v>0.00756780942901969</v>
+      </c>
+      <c r="J13">
+        <v>0.01265208935365081</v>
+      </c>
+      <c r="K13">
+        <v>0.00240099523216486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>0.0002439920790493488</v>
+      </c>
+      <c r="E14">
+        <v>0.03857281897217035</v>
+      </c>
+      <c r="F14">
+        <v>58</v>
+      </c>
+      <c r="G14">
+        <v>0.004243476781994104</v>
+      </c>
+      <c r="H14">
+        <v>0.006414820440113544</v>
+      </c>
+      <c r="I14">
+        <v>0.00806529214605689</v>
+      </c>
+      <c r="J14">
+        <v>0.01334349531680346</v>
+      </c>
+      <c r="K14">
+        <v>0.002783124800771475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>119</v>
+      </c>
+      <c r="D15">
+        <v>0.0009549488313496113</v>
+      </c>
+      <c r="E15">
+        <v>0.1100334040820599</v>
+      </c>
+      <c r="F15">
+        <v>119</v>
+      </c>
+      <c r="G15">
+        <v>0.008179400581866503</v>
+      </c>
+      <c r="H15">
+        <v>0.01369037479162216</v>
+      </c>
+      <c r="I15">
+        <v>0.06780656427145004</v>
+      </c>
+      <c r="J15">
+        <v>0.00805433327332139</v>
+      </c>
+      <c r="K15">
+        <v>0.005087675992399454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>581</v>
+      </c>
+      <c r="D16">
+        <v>0.01395469903945923</v>
+      </c>
+      <c r="E16">
+        <v>0.4033254077658057</v>
+      </c>
+      <c r="F16">
+        <v>581</v>
+      </c>
+      <c r="G16">
+        <v>0.02689278591424227</v>
+      </c>
+      <c r="H16">
+        <v>0.05891077406704426</v>
+      </c>
+      <c r="I16">
+        <v>0.2481127684004605</v>
+      </c>
+      <c r="J16">
+        <v>0.02654362982138991</v>
+      </c>
+      <c r="K16">
+        <v>0.01760034961625934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>119</v>
+      </c>
+      <c r="D17">
+        <v>0.005450536962598562</v>
+      </c>
+      <c r="E17">
+        <v>0.1282292581163347</v>
+      </c>
+      <c r="F17">
+        <v>119</v>
+      </c>
+      <c r="G17">
+        <v>0.008348577655851841</v>
+      </c>
+      <c r="H17">
+        <v>0.02050282200798392</v>
+      </c>
+      <c r="I17">
+        <v>0.07222355576232076</v>
+      </c>
+      <c r="J17">
+        <v>0.01464533247053623</v>
+      </c>
+      <c r="K17">
+        <v>0.005073483102023602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>119</v>
+      </c>
+      <c r="D18">
+        <v>0.001059177797287703</v>
+      </c>
+      <c r="E18">
+        <v>0.0909128887578845</v>
+      </c>
+      <c r="F18">
+        <v>119</v>
+      </c>
+      <c r="G18">
+        <v>0.00660917442291975</v>
+      </c>
+      <c r="H18">
+        <v>0.01266850298270583</v>
+      </c>
+      <c r="I18">
+        <v>0.05430999072268605</v>
+      </c>
+      <c r="J18">
+        <v>0.007301431614905596</v>
+      </c>
+      <c r="K18">
+        <v>0.004140134900808334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>0.01243691705167294</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
